--- a/Securities/1.xlsx
+++ b/Securities/1.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F055F2-3FD9-4E09-A6D7-DF827D7F5608}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F858F28D-BF8B-4F3A-939F-9EE52606D6F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="增加辅助策略" sheetId="2" r:id="rId2"/>
     <sheet name="debug" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="3品种 叠加 老策略" sheetId="4" r:id="rId4"/>
+    <sheet name="20190221_RQ_SIGNAL" sheetId="5" r:id="rId5"/>
+    <sheet name="20190221_RQ_SIGNAL_Mutil" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>I orig</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +64,22 @@
   </si>
   <si>
     <t>3. 在1基础上增加稳定性策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲醇 单品种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁矿 单品种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锌 单品种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁 + 甲醇 + 锌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,6 +641,192 @@
         <a:xfrm>
           <a:off x="0" y="180975"/>
           <a:ext cx="12580344" cy="6362700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42505</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A3B297-5693-4114-8187-F9F2EA43C354}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="381000"/>
+          <a:ext cx="9624655" cy="4552950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>169787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E01ED6-BF11-4031-BB6E-649D345C2A0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5610225"/>
+          <a:ext cx="9629774" cy="4875137"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>154881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B90A8D4-F51A-43F7-A9BD-6D880BE80741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="11039476"/>
+          <a:ext cx="9620250" cy="4860230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8162</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518DFAC9-799D-4CFE-94AF-7190A9418D95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="361951"/>
+          <a:ext cx="9609362" cy="4867274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1002,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA45E99C-0C88-4735-A9C6-91BE585762B0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1013,4 +1217,59 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E58AA34-FC7B-4416-8CE5-38479603AA22}">
+  <dimension ref="A1:A60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE34251-CCEA-4F19-935B-D90851AC9B43}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>